--- a/data/transformed_data_2001.xlsx
+++ b/data/transformed_data_2001.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>143538.6420073969</v>
+        <v>144730.2926073969</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13429.43</v>
+        <v>11549.3098</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4917.64</v>
+        <v>4229.170399999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5087,7 +5087,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9071.263635846373</v>
+        <v>8960.200235846372</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5423,7 +5423,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>57.82</v>
+        <v>49.7252</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5591,7 +5591,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>851.13</v>
+        <v>731.9717999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21262.89436187766</v>
+        <v>21887.08576187766</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8152,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>10662.89</v>
+        <v>9170.0854</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8320,7 +8320,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6204.38</v>
+        <v>5335.766799999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9422.230101849216</v>
+        <v>9492.819501849217</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10895,7 +10895,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>979.02</v>
+        <v>841.9571999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>474.81</v>
+        <v>408.3366</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13288,7 +13288,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12677.22532631579</v>
+        <v>12602.24552631579</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13624,7 +13624,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6236.23</v>
+        <v>5363.1578</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13792,7 +13792,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6771.8</v>
+        <v>5823.748</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16031,7 +16031,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3602.6956</v>
+        <v>3558.037</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16367,7 +16367,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>48.02</v>
+        <v>41.2972</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16535,7 +16535,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>367.01</v>
+        <v>315.6286</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18760,7 +18760,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14230.40385092461</v>
+        <v>14296.9458509246</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19096,7 +19096,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9420.74</v>
+        <v>8101.8364</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19264,7 +19264,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8945.440000000001</v>
+        <v>7693.078399999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21503,7 +21503,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16022.93986173542</v>
+        <v>16077.27106173542</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21839,7 +21839,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6240.15</v>
+        <v>5366.529</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22007,7 +22007,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5852.07</v>
+        <v>5032.780199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24246,7 +24246,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13705.17333883357</v>
+        <v>13601.93033883357</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7600.88</v>
+        <v>6536.7568</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24750,7 +24750,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8338.33</v>
+        <v>7170.9638</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -26989,7 +26989,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5097.917593741109</v>
+        <v>4978.416393741109</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27325,7 +27325,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>625.73</v>
+        <v>538.1278</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27493,7 +27493,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1479.31</v>
+        <v>1272.2066</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29704,7 +29704,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5827.89088610716</v>
+        <v>5878.58628610716</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30040,7 +30040,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3337.39</v>
+        <v>2870.1554</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30208,7 +30208,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2975.28</v>
+        <v>2558.7408</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32447,7 +32447,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>23972.1667027027</v>
+        <v>24029.9279027027</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32783,7 +32783,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1207.36</v>
+        <v>1038.3296</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32951,7 +32951,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>794.78</v>
+        <v>683.5108</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35176,7 +35176,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4936.601311038045</v>
+        <v>4891.668311038044</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35512,7 +35512,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>33.32</v>
+        <v>28.6552</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35680,7 +35680,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>354.27</v>
+        <v>304.6722</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37905,7 +37905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5137.605797407313</v>
+        <v>5000.268597407313</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38241,7 +38241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>37.24</v>
+        <v>32.0264</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38409,7 +38409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1018.22</v>
+        <v>875.6691999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40634,7 +40634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3191.456345945946</v>
+        <v>3153.108945945946</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40970,7 +40970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2322.11</v>
+        <v>1997.0146</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41138,7 +41138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2596.02</v>
+        <v>2232.5772</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43377,7 +43377,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3428.619638426663</v>
+        <v>3447.004438426663</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43713,7 +43713,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5583.059999999999</v>
+        <v>4801.4316</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43881,7 +43881,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5451.74</v>
+        <v>4688.4964</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46120,7 +46120,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14057.39350782361</v>
+        <v>13645.79350782361</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46456,7 +46456,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5687.43</v>
+        <v>4891.1898</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46624,7 +46624,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8627.43</v>
+        <v>7419.5898</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48863,7 +48863,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4501.240955334281</v>
+        <v>4446.360955334281</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49199,7 +49199,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3497.62</v>
+        <v>3007.9532</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49367,7 +49367,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3889.62</v>
+        <v>3345.0732</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5561.421823044097</v>
+        <v>5362.481823044097</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>565.46</v>
+        <v>486.2956</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1986.46</v>
+        <v>1708.3556</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54321,7 +54321,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2686.69400512091</v>
+        <v>2703.84400512091</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54657,7 +54657,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>789.88</v>
+        <v>679.2968</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54825,7 +54825,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>667.38</v>
+        <v>573.9467999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57050,7 +57050,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6686.59693200569</v>
+        <v>6635.76433200569</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57386,7 +57386,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>761.46</v>
+        <v>654.8556</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57554,7 +57554,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1124.55</v>
+        <v>967.1130000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59779,7 +59779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6263.818547368421</v>
+        <v>6301.822947368421</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60115,7 +60115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1291.15</v>
+        <v>1110.389</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60283,7 +60283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1019.69</v>
+        <v>876.9334</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62522,7 +62522,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>47813.24132859175</v>
+        <v>50103.45232859175</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62858,7 +62858,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>19771.5</v>
+        <v>17003.49</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63026,7 +63026,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3412.85</v>
+        <v>2935.051</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65265,7 +65265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2654.5541314367</v>
+        <v>2667.3137314367</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65601,7 +65601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2086.91</v>
+        <v>1794.7426</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65769,7 +65769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1995.77</v>
+        <v>1716.3622</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -67994,7 +67994,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>103360.8015203414</v>
+        <v>101292.1685203414</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68330,7 +68330,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>15429.12</v>
+        <v>13269.0432</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68498,7 +68498,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>30205.07</v>
+        <v>25976.3602</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70737,7 +70737,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>33444.63536842105</v>
+        <v>33435.30576842105</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71073,7 +71073,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2081.03</v>
+        <v>1789.6858</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71241,7 +71241,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2147.67</v>
+        <v>1846.9962</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73466,7 +73466,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>23618.56463613087</v>
+        <v>25042.28903613087</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73802,7 +73802,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11912.39</v>
+        <v>10244.6554</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73970,7 +73970,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1742.93</v>
+        <v>1498.9198</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76209,7 +76209,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24735.96922332859</v>
+        <v>25520.89042332859</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76545,7 +76545,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>18926.74</v>
+        <v>16276.9964</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76713,7 +76713,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>13320.16</v>
+        <v>11455.3376</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78952,7 +78952,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8513.429100590376</v>
+        <v>8528.383900590376</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79288,7 +79288,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1417.08</v>
+        <v>1218.6888</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79456,7 +79456,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1310.26</v>
+        <v>1126.8236</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81681,7 +81681,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13546.34394423898</v>
+        <v>13638.88534423898</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82017,7 +82017,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1683.15</v>
+        <v>1447.509</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82185,7 +82185,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1022.14</v>
+        <v>879.0404</v>
       </c>
     </row>
     <row r="168" spans="1:4">
